--- a/กราฟการทำงานของ ABB.xlsx
+++ b/กราฟการทำงานของ ABB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86A85D5-8CD6-470C-8E0F-BA560ADCAB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754848F4-5E73-43D1-9814-6CF1E8229C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="170">
   <si>
     <t>ชื่อสินค้า</t>
   </si>
@@ -573,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,62 +636,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF993366"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor rgb="FF0000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808000"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -702,146 +654,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF339966"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0066CC"/>
-        <bgColor rgb="FF0066CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008080"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF333399"/>
-        <bgColor rgb="FF333399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF993300"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3366FF"/>
-        <bgColor rgb="FF3366FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9999FF"/>
-        <bgColor rgb="FF9999FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
-        <bgColor rgb="FF00CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666699"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -857,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,39 +714,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,8 +1034,8 @@
   <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5537,7 +5327,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5847,9 +5637,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AX54"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6032,87 +5824,87 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="21" t="s">
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="22" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="23" t="s">
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="24" t="s">
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="25" t="s">
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="26" t="s">
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="22" t="s">
+      <c r="W8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="27" t="s">
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="R10" s="29" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="R10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="25" t="s">
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="25" t="s">
+      <c r="Y10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="25"/>
+      <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
       <c r="AC10" s="22"/>
@@ -6127,91 +5919,91 @@
       </c>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AL10" s="21" t="s">
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AL10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AM10" s="21" t="s">
+      <c r="AM10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AN10" s="30" t="s">
+      <c r="AN10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="31" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="31" t="s">
+      <c r="W12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="27" t="s">
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="32" t="s">
+      <c r="Y14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="33" t="s">
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="29" t="s">
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AF14" s="29" t="s">
+      <c r="AF14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AG14" s="29" t="s">
+      <c r="AG14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="34"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="19"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="22" t="s">
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="36" t="s">
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36" t="s">
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20" t="s">
         <v>52</v>
       </c>
       <c r="AN16" s="22" t="s">
@@ -6221,129 +6013,129 @@
       <c r="AP16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21" t="s">
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="38" t="s">
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="X18" s="19" t="s">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="X18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="19" t="s">
+      <c r="Y18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="38" t="s">
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38" t="s">
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="22" t="s">
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="22" t="s">
+      <c r="AJ18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="40" t="s">
+      <c r="S20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="39" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AH20" s="39" t="s">
+      <c r="AH20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="19" t="s">
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="S22" s="41" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="S22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="AH22" s="30" t="s">
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="AH22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="29" t="s">
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29" t="s">
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
       <c r="AQ22" s="19" t="s">
         <v>64</v>
       </c>
@@ -6355,22 +6147,22 @@
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="Y24" s="18" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="Y24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
       <c r="AG24" s="19" t="s">
         <v>52</v>
       </c>
@@ -6378,18 +6170,18 @@
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
       <c r="AK24" s="19"/>
-      <c r="AO24" s="22" t="s">
+      <c r="AO24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AP24" s="23" t="s">
+      <c r="AP24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AQ24" s="23"/>
-      <c r="AR24" s="22" t="s">
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22" t="s">
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AU24" s="19" t="s">
@@ -6402,29 +6194,29 @@
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="AH26" s="34" t="s">
+      <c r="AH26" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="40" t="s">
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AT26" s="18" t="s">
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AT26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AU26" s="18"/>
-      <c r="AV26" s="18"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="S28" s="20" t="s">
         <v>74</v>
       </c>
       <c r="T28" s="21" t="s">
@@ -6434,43 +6226,43 @@
       <c r="V28" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="W28" s="26" t="s">
+      <c r="W28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="AD28" s="26" t="s">
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="AD28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="42" t="s">
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="43" t="s">
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AO28" s="43"/>
-      <c r="AP28" s="43" t="s">
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AQ28" s="43"/>
+      <c r="AQ28" s="19"/>
       <c r="AR28" s="21"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="T30" s="44" t="s">
+      <c r="T30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U30" s="44"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="19" t="s">
         <v>57</v>
       </c>
@@ -6488,34 +6280,34 @@
       </c>
       <c r="AQ30" s="22"/>
       <c r="AR30" s="22"/>
-      <c r="AS30" s="45" t="s">
+      <c r="AS30" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45" t="s">
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="25"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="21"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>79</v>
       </c>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="U32" s="30" t="s">
+      <c r="U32" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="31" t="s">
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
       <c r="AB32" s="21" t="s">
         <v>29</v>
       </c>
@@ -6523,28 +6315,28 @@
       <c r="AD32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="27" t="s">
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="37" t="s">
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AN32" s="37" t="s">
+      <c r="AN32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="40" t="s">
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="40"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -6562,132 +6354,132 @@
       <c r="AJ34" s="19"/>
       <c r="AK34" s="19"/>
       <c r="AL34" s="19"/>
-      <c r="AM34" s="25" t="s">
+      <c r="AM34" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25" t="s">
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="26" t="s">
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
+      <c r="AT34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="U36" s="24" t="s">
+      <c r="U36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="27" t="s">
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB36" s="27" t="s">
+      <c r="AB36" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="18" t="s">
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="19" t="s">
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="44" t="s">
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AO36" s="44"/>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="21" t="s">
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="21"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="U38" s="37" t="s">
+      <c r="U38" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="45" t="s">
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="37" t="s">
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AE38" s="46" t="s">
+      <c r="AE38" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>88</v>
       </c>
-      <c r="V40" s="47" t="s">
+      <c r="V40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="35" t="s">
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="26" t="s">
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="43" t="s">
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AK40" s="48" t="s">
+      <c r="AK40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AL40" s="48"/>
-      <c r="AM40" s="19" t="s">
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AN40" s="19" t="s">
+      <c r="AN40" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AO40" s="19"/>
+      <c r="AO40" s="20"/>
       <c r="AP40" s="19" t="s">
         <v>87</v>
       </c>
@@ -6698,58 +6490,58 @@
       <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="U42" s="46" t="s">
+      <c r="U42" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="34" t="s">
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="49" t="s">
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="50" t="s">
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AM42" s="50"/>
-      <c r="AN42" s="50"/>
-      <c r="AO42" s="50"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="U44" s="48" t="s">
+      <c r="U44" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="41" t="s">
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
-      <c r="AC44" s="51" t="s">
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AD44" s="51"/>
-      <c r="AE44" s="51"/>
-      <c r="AG44" s="33" t="s">
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AG44" s="19" t="s">
         <v>96</v>
       </c>
       <c r="AH44" s="18" t="s">
@@ -6777,163 +6569,158 @@
       <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="T46" s="18" t="s">
+      <c r="T46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="33" t="s">
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="36" t="s">
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36" t="s">
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="32" t="s">
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AJ46" s="32" t="s">
+      <c r="AJ46" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="AK46" s="32"/>
-      <c r="AL46" s="32"/>
-      <c r="AM46" s="27" t="s">
+      <c r="AK46" s="21"/>
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
-      <c r="U48" s="25" t="s">
+      <c r="U48" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="46" t="s">
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="39" t="s">
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AC48" s="39"/>
-      <c r="AD48" s="49" t="s">
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="37" t="s">
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AH48" s="24" t="s">
+      <c r="AH48" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AI48" s="24" t="s">
+      <c r="AI48" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AJ48" s="24"/>
-      <c r="AK48" s="24"/>
-      <c r="AL48" s="24"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="26" t="s">
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="26"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="26"/>
-      <c r="AS48" s="26"/>
-      <c r="AT48" s="26"/>
-      <c r="AU48" s="26"/>
-      <c r="AV48" s="47" t="s">
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AW48" s="47"/>
+      <c r="AW48" s="18"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="V50" s="46" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="V50" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="22" t="s">
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
-      <c r="X52" s="27" t="s">
+      <c r="X52" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="52" t="s">
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AC52" s="52" t="s">
+      <c r="AC52" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="25" t="s">
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="AG52" s="25"/>
-      <c r="AH52" s="21" t="s">
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="34" t="s">
+      <c r="AI52" s="18"/>
+      <c r="AJ52" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="27" t="s">
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AM52" s="27"/>
-      <c r="AN52" s="27"/>
-      <c r="AO52" s="27"/>
-      <c r="AP52" s="37" t="s">
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AQ52" s="37"/>
-      <c r="AR52" s="37"/>
-      <c r="AS52" s="37"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
+      <c r="AQ52" s="18"/>
+      <c r="AR52" s="18"/>
+      <c r="AS52" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/กราฟการทำงานของ ABB.xlsx
+++ b/กราฟการทำงานของ ABB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754848F4-5E73-43D1-9814-6CF1E8229C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72E4F0-1156-4D6D-A8F3-8D77DFBBA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="ABB4" sheetId="3" r:id="rId3"/>
     <sheet name="ตัวอย่างกราฟ" sheetId="4" r:id="rId4"/>
     <sheet name="Graph Timing ABB1" sheetId="5" r:id="rId5"/>
+    <sheet name="TestError" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="176">
   <si>
     <t>ชื่อสินค้า</t>
   </si>
@@ -534,6 +535,24 @@
   </si>
   <si>
     <t>T-2311&lt;--GEAR OIL EP 460</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>03/05/2567</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>04/05/2568</t>
+  </si>
+  <si>
+    <t>15:37</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1053,8 @@
   <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4064,7 +4083,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5639,7 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -6725,4 +6744,93 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="17" customWidth="1"/>
+    <col min="2" max="3" width="18" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/กราฟการทำงานของ ABB.xlsx
+++ b/กราฟการทำงานของ ABB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72E4F0-1156-4D6D-A8F3-8D77DFBBA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AADF09-BE3F-49AD-AC5C-39EC2DF061B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,16 @@
     <sheet name="ABB2" sheetId="2" r:id="rId2"/>
     <sheet name="ABB4" sheetId="3" r:id="rId3"/>
     <sheet name="ตัวอย่างกราฟ" sheetId="4" r:id="rId4"/>
-    <sheet name="Graph Timing ABB1" sheetId="5" r:id="rId5"/>
-    <sheet name="TestError" sheetId="6" r:id="rId6"/>
+    <sheet name="TestError" sheetId="5" r:id="rId5"/>
+    <sheet name="Graph Timing ABB1" sheetId="6" r:id="rId6"/>
+    <sheet name="Graph Timing TestError" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="176">
   <si>
     <t>ชื่อสินค้า</t>
   </si>
@@ -552,7 +553,7 @@
     <t>04/05/2568</t>
   </si>
   <si>
-    <t>15:37</t>
+    <t>TestError</t>
   </si>
 </sst>
 </file>
@@ -592,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,8 +656,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -667,20 +668,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -696,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,9 +800,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,8 +1131,8 @@
   <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5656,10 +5734,99 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="17" customWidth="1"/>
+    <col min="2" max="3" width="18" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="S25" workbookViewId="0">
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5843,246 +6010,246 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="20" t="s">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="21" t="s">
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="18" t="s">
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="22" t="s">
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="21" t="s">
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="22" t="s">
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="W8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="19" t="s">
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="R10" s="20" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="R10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="22" t="s">
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="Y10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22" t="s">
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="18" t="s">
+      <c r="AE10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="18" t="s">
+      <c r="AF10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AL10" s="19" t="s">
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AL10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AM10" s="19" t="s">
+      <c r="AM10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AN10" s="20" t="s">
+      <c r="AN10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="V12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="W12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="20" t="s">
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="20" t="s">
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="22" t="s">
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AF14" s="22" t="s">
+      <c r="AF14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AG14" s="22" t="s">
+      <c r="AG14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="19"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="32"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="AD16" s="22" t="s">
+      <c r="AD16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="18" t="s">
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="20" t="s">
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20" t="s">
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AN16" s="22" t="s">
+      <c r="AN16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22" t="s">
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19" t="s">
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="20" t="s">
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="19" t="s">
+      <c r="R18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="X18" s="20" t="s">
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="X18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="20" t="s">
+      <c r="Y18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="22" t="s">
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22" t="s">
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="19" t="s">
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="19" t="s">
+      <c r="AJ18" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -6104,127 +6271,127 @@
       <c r="AD20" s="22"/>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
-      <c r="AG20" s="21" t="s">
+      <c r="AG20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AH20" s="21" t="s">
+      <c r="AH20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="18" t="s">
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="S22" s="18" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="S22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="19" t="s">
+      <c r="T22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="AH22" s="20" t="s">
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="AH22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="22" t="s">
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22" t="s">
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="19" t="s">
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="Y24" s="21" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="Y24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="19" t="s">
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AO24" s="18" t="s">
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AO24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AP24" s="22" t="s">
+      <c r="AP24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="18" t="s">
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AS24" s="18"/>
-      <c r="AT24" s="18" t="s">
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AU24" s="19" t="s">
+      <c r="AU24" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="AH26" s="20" t="s">
+      <c r="AH26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="22" t="s">
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
       <c r="AT26" s="21" t="s">
         <v>74</v>
       </c>
@@ -6235,59 +6402,59 @@
       <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="S28" s="20" t="s">
+      <c r="S28" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21" t="s">
+      <c r="U28" s="18"/>
+      <c r="V28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="W28" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="AD28" s="19" t="s">
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="AD28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="18" t="s">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="19" t="s">
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19" t="s">
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="21"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="28"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="T30" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="19" t="s">
+      <c r="U30" s="20"/>
+      <c r="V30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
       <c r="AL30" s="19" t="s">
         <v>77</v>
       </c>
@@ -6299,80 +6466,80 @@
       </c>
       <c r="AQ30" s="22"/>
       <c r="AR30" s="22"/>
-      <c r="AS30" s="20" t="s">
+      <c r="AS30" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AT30" s="20"/>
-      <c r="AU30" s="20" t="s">
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="21"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="23"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>79</v>
       </c>
-      <c r="T32" s="18" t="s">
+      <c r="T32" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="U32" s="19" t="s">
+      <c r="U32" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="22" t="s">
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="21" t="s">
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21" t="s">
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="20" t="s">
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="22" t="s">
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AN32" s="22" t="s">
+      <c r="AN32" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="AO32" s="22"/>
-      <c r="AP32" s="18" t="s">
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AQ32" s="18"/>
-      <c r="AR32" s="18"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="AC34" s="19" t="s">
+      <c r="AC34" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
       <c r="AM34" s="20" t="s">
         <v>63</v>
       </c>
@@ -6382,123 +6549,123 @@
       </c>
       <c r="AP34" s="20"/>
       <c r="AQ34" s="20"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="18" t="s">
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AU34" s="18"/>
-      <c r="AV34" s="18"/>
-      <c r="AW34" s="18"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="22"/>
+      <c r="AW34" s="22"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="U36" s="18" t="s">
+      <c r="U36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="19" t="s">
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AB36" s="19" t="s">
+      <c r="AB36" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="20" t="s">
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="22" t="s">
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="21" t="s">
+      <c r="AM36" s="28"/>
+      <c r="AN36" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="18" t="s">
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AR36" s="18"/>
-      <c r="AS36" s="18"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="U38" s="19" t="s">
+      <c r="U38" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="20" t="s">
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="22" t="s">
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AE38" s="21" t="s">
+      <c r="AE38" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>88</v>
       </c>
-      <c r="V40" s="20" t="s">
+      <c r="V40" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
       <c r="Z40" s="22" t="s">
         <v>89</v>
       </c>
       <c r="AA40" s="22"/>
       <c r="AB40" s="22"/>
       <c r="AC40" s="22"/>
-      <c r="AD40" s="21" t="s">
+      <c r="AD40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="18" t="s">
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AK40" s="19" t="s">
+      <c r="AK40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="20" t="s">
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AN40" s="20" t="s">
+      <c r="AN40" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AO40" s="20"/>
+      <c r="AO40" s="24"/>
       <c r="AP40" s="19" t="s">
         <v>87</v>
       </c>
@@ -6509,80 +6676,80 @@
       <c r="A42" t="s">
         <v>91</v>
       </c>
-      <c r="U42" s="22" t="s">
+      <c r="U42" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="21" t="s">
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="18" t="s">
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="19" t="s">
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="U44" s="22" t="s">
+      <c r="U44" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="21" t="s">
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="18" t="s">
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AG44" s="19" t="s">
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AG44" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="AH44" s="18" t="s">
+      <c r="AH44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AI44" s="18" t="s">
+      <c r="AI44" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="18"/>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="18"/>
-      <c r="AP44" s="18"/>
-      <c r="AQ44" s="18"/>
-      <c r="AR44" s="18"/>
-      <c r="AS44" s="18" t="s">
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="22"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="22"/>
+      <c r="AQ44" s="22"/>
+      <c r="AR44" s="22"/>
+      <c r="AS44" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AT44" s="18"/>
-      <c r="AU44" s="18"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -6596,86 +6763,86 @@
       <c r="W46" s="21"/>
       <c r="X46" s="21"/>
       <c r="Y46" s="21"/>
-      <c r="Z46" s="18" t="s">
+      <c r="Z46" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="22" t="s">
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22" t="s">
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="21" t="s">
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AJ46" s="21" t="s">
+      <c r="AJ46" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="20" t="s">
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
+      <c r="AM46" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="20"/>
+      <c r="AN46" s="27"/>
+      <c r="AO46" s="27"/>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>98</v>
       </c>
-      <c r="U48" s="20" t="s">
+      <c r="U48" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="22" t="s">
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="21" t="s">
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="18" t="s">
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="20" t="s">
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AH48" s="22" t="s">
+      <c r="AH48" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AI48" s="22" t="s">
+      <c r="AI48" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="18"/>
-      <c r="AL48" s="18"/>
-      <c r="AM48" s="18"/>
-      <c r="AN48" s="21" t="s">
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AO48" s="21"/>
-      <c r="AP48" s="21"/>
-      <c r="AQ48" s="21"/>
-      <c r="AR48" s="21"/>
-      <c r="AS48" s="21"/>
-      <c r="AT48" s="21"/>
-      <c r="AU48" s="21"/>
-      <c r="AV48" s="18" t="s">
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="18"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="18"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AW48" s="18"/>
+      <c r="AW48" s="19"/>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -6686,12 +6853,12 @@
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
-      <c r="V50" s="19" t="s">
+      <c r="V50" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
       <c r="Z50" s="20" t="s">
         <v>64</v>
       </c>
@@ -6702,135 +6869,248 @@
       <c r="A52" t="s">
         <v>100</v>
       </c>
-      <c r="X52" s="20" t="s">
+      <c r="X52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="22" t="s">
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AC52" s="22" t="s">
+      <c r="AC52" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
       <c r="AF52" s="21" t="s">
         <v>96</v>
       </c>
       <c r="AG52" s="21"/>
-      <c r="AH52" s="18" t="s">
+      <c r="AH52" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AI52" s="18"/>
-      <c r="AJ52" s="19" t="s">
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AK52" s="19"/>
-      <c r="AL52" s="21" t="s">
+      <c r="AK52" s="25"/>
+      <c r="AL52" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="18" t="s">
+      <c r="AM52" s="32"/>
+      <c r="AN52" s="32"/>
+      <c r="AO52" s="32"/>
+      <c r="AP52" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AQ52" s="18"/>
-      <c r="AR52" s="18"/>
-      <c r="AS52" s="18"/>
+      <c r="AQ52" s="31"/>
+      <c r="AR52" s="31"/>
+      <c r="AS52" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AX8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.125" style="17" customWidth="1"/>
-    <col min="2" max="3" width="18" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18" style="17" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="AD4" s="33"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF6" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="AG6" s="33"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC8" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="AD8" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>